--- a/log.xlsx
+++ b/log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>职位</t>
   </si>
@@ -112,6 +112,22 @@
     <t>http://www.newsmth.net/nForum/#!article/Career_Upgrade/488589</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>百信银行信息技术部-核心系统开发经理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中关村银行核心银行开发岗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://i.zhaopin.com/PositionRecord/jobpostrecord/Index</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -153,6 +169,13 @@
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -171,18 +194,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="访问过的超链接" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -512,15 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
     <col min="2" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="51" bestFit="1" customWidth="1"/>
@@ -553,6 +585,9 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="2">
+        <v>42752</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
@@ -567,6 +602,9 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
+      <c r="D3" s="2">
+        <v>42752</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
@@ -581,6 +619,9 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="2">
+        <v>42752</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
@@ -600,12 +641,44 @@
       </c>
       <c r="E5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>42753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>42739</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" location="!article/Career_Upgrade/488632"/>
+    <hyperlink ref="E7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
